--- a/users.xlsx
+++ b/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -500,9 +500,32 @@
         <v>Ww</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="C5" t="str">
+        <v>@sanjaraybekov</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Sanjar</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Okay</v>
+      </c>
+      <c r="F5" t="str">
+        <v>998938478377</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Jsjs</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,9 +523,55 @@
         <v>Jsjs</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>788109879</v>
+      </c>
+      <c r="C6" t="str">
+        <v>@sanjaraybekov</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Sanjar</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>+998938478377</v>
+      </c>
+      <c r="G6" t="str">
+        <v>as</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>385117509</v>
+      </c>
+      <c r="C7" t="str">
+        <v>@Alibek1530</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Alibek</v>
+      </c>
+      <c r="E7" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="F7" t="str">
+        <v>998937121530</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Mega</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>